--- a/src/test/resources/import/verfiy.xlsx
+++ b/src/test/resources/import/verfiy.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABB3C301-5361-4049-8ED1-9BA8EDE03037}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -44,17 +45,13 @@
   </si>
   <si>
     <t>大苏打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,6 +194,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +246,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,19 +438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -453,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21312313</v>
       </c>
@@ -467,7 +499,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,11 +512,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4">
+        <v>132123123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21312313</v>
       </c>
@@ -501,8 +533,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
